--- a/teaching/traditional_assets/database/data/malaysia/malaysia_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/malaysia/malaysia_investments_asset_management.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AQ7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,31 +591,31 @@
         </is>
       </c>
       <c r="G2">
-        <v>-3.429054054054054</v>
+        <v>-0.08512690355329949</v>
       </c>
       <c r="H2">
-        <v>-3.429054054054054</v>
+        <v>-0.08512690355329949</v>
       </c>
       <c r="I2">
-        <v>-3.999820042631255</v>
+        <v>0.3480710659898477</v>
       </c>
       <c r="J2">
-        <v>-3.999820042631255</v>
+        <v>0.3439349913981692</v>
       </c>
       <c r="K2">
-        <v>18.307</v>
+        <v>238.79</v>
       </c>
       <c r="L2">
-        <v>6.184797297297297</v>
+        <v>12.12131979695432</v>
       </c>
       <c r="M2">
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.1698252522766429</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.7538100180258919</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -627,79 +627,76 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>13.8</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>18.241</v>
+        <v>25.604</v>
       </c>
       <c r="V2">
-        <v>0.2244769874476987</v>
+        <v>0.2107793501436533</v>
       </c>
       <c r="W2">
-        <v>0.08975063131313131</v>
+        <v>-0.01286549707602339</v>
       </c>
       <c r="X2">
-        <v>0.05452710557221658</v>
+        <v>0.04193426666134865</v>
       </c>
       <c r="Y2">
-        <v>0.03522352574091473</v>
+        <v>-0.05479976373737205</v>
       </c>
       <c r="Z2">
-        <v>0.0239671578752818</v>
+        <v>0.1302419061597149</v>
       </c>
       <c r="AA2">
-        <v>-0.125802432045991</v>
+        <v>0.05925756218304797</v>
       </c>
       <c r="AB2">
-        <v>0.05434909234498413</v>
+        <v>0.04170090084630979</v>
       </c>
       <c r="AC2">
-        <v>-0.1800727650685975</v>
+        <v>0.01762175681670111</v>
       </c>
       <c r="AD2">
-        <v>4.744</v>
+        <v>18.258</v>
       </c>
       <c r="AE2">
-        <v>0.07233663094257466</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>4.816336630942574</v>
+        <v>18.258</v>
       </c>
       <c r="AG2">
-        <v>-13.42466336905743</v>
+        <v>-7.346000000000004</v>
       </c>
       <c r="AH2">
-        <v>0.05595424735131218</v>
+        <v>0.1306653498507847</v>
       </c>
       <c r="AI2">
-        <v>0.02844578808387937</v>
+        <v>0.04213494814479763</v>
       </c>
       <c r="AJ2">
-        <v>-0.1979007407613257</v>
+        <v>-0.06436688951781791</v>
       </c>
       <c r="AK2">
-        <v>-0.08886072120330357</v>
+        <v>-0.01801735513271429</v>
       </c>
       <c r="AL2">
-        <v>0.012</v>
+        <v>0.325</v>
       </c>
       <c r="AM2">
-        <v>-0.675</v>
+        <v>-0.269</v>
       </c>
       <c r="AN2">
-        <v>-0.4079456531086078</v>
+        <v>2.545023696682464</v>
       </c>
       <c r="AO2">
-        <v>-990.2499999999999</v>
+        <v>21.09846153846154</v>
       </c>
       <c r="AP2">
-        <v>1.154412534960652</v>
+        <v>-1.023975466964037</v>
       </c>
       <c r="AQ2">
-        <v>17.60444444444444</v>
+        <v>-25.49070631970261</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +707,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ECM Libra Group Berhad (KLSE:ECM)</t>
+          <t>Vertu Capital Limited (LSE:VCBC)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -718,32 +715,17 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
-        <v>7.7</v>
-      </c>
-      <c r="L3">
-        <v>1.387387387387387</v>
+        <v>-0.17</v>
       </c>
       <c r="M3">
-        <v>13.8</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.4394904458598727</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>1.792207792207792</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -752,64 +734,61 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>13.8</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.58</v>
+        <v>0.314</v>
       </c>
       <c r="V3">
-        <v>0.01847133757961783</v>
+        <v>0.5479930191972078</v>
       </c>
       <c r="W3">
-        <v>0.1944444444444444</v>
+        <v>-0.3820224719101124</v>
       </c>
       <c r="X3">
-        <v>0.05809797737412074</v>
+        <v>0.04163324415823549</v>
       </c>
       <c r="Y3">
-        <v>0.1363464670703237</v>
+        <v>-0.4236557160683479</v>
       </c>
       <c r="Z3">
-        <v>0.147175815433572</v>
+        <v>-0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>3.695652173913045</v>
       </c>
       <c r="AB3">
-        <v>0.05538073610711922</v>
+        <v>0.04163324415823549</v>
       </c>
       <c r="AC3">
-        <v>-0.05538073610711922</v>
+        <v>3.654018929754809</v>
       </c>
       <c r="AD3">
-        <v>4.52</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>4.52</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>3.94</v>
+        <v>-0.314</v>
       </c>
       <c r="AH3">
-        <v>0.1258351893095768</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.08429690414024617</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.1114883984153933</v>
+        <v>-1.212355212355213</v>
       </c>
       <c r="AK3">
-        <v>0.07428355957767721</v>
+        <v>6.280000000000001</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -835,22 +814,22 @@
         </is>
       </c>
       <c r="G4">
-        <v>-0.6396866840731071</v>
+        <v>-0.1725925925925926</v>
       </c>
       <c r="H4">
-        <v>-0.6396866840731071</v>
+        <v>-0.1725925925925926</v>
       </c>
       <c r="I4">
-        <v>-0.9268929503916449</v>
+        <v>0.3925925925925926</v>
       </c>
       <c r="J4">
-        <v>-0.9268929503916449</v>
+        <v>0.3925925925925926</v>
       </c>
       <c r="K4">
-        <v>18</v>
+        <v>240.9</v>
       </c>
       <c r="L4">
-        <v>4.699738903394255</v>
+        <v>17.84444444444444</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -874,73 +853,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.181</v>
+        <v>2.91</v>
       </c>
       <c r="V4">
-        <v>0.02090069284064665</v>
+        <v>0.05069686411149826</v>
       </c>
       <c r="W4">
-        <v>0.5960264900662252</v>
+        <v>4.946611909650924</v>
       </c>
       <c r="X4">
-        <v>0.05426213512617672</v>
+        <v>0.04516939700715081</v>
       </c>
       <c r="Y4">
-        <v>0.5417643549400485</v>
+        <v>4.901442512643773</v>
       </c>
       <c r="Z4">
-        <v>0.09591785624843477</v>
+        <v>0.2303007557276651</v>
       </c>
       <c r="AA4">
-        <v>-0.08890558477335336</v>
+        <v>0.09041437076715739</v>
       </c>
       <c r="AB4">
-        <v>0.05426213512617672</v>
+        <v>0.04336719649585168</v>
       </c>
       <c r="AC4">
-        <v>-0.1431677198995301</v>
+        <v>0.0470471742713057</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>8.26</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>8.26</v>
       </c>
       <c r="AG4">
-        <v>-0.181</v>
+        <v>5.35</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.1257995735607676</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.02596994277809218</v>
       </c>
       <c r="AJ4">
-        <v>-0.02134685694067696</v>
+        <v>0.08525896414342629</v>
       </c>
       <c r="AK4">
-        <v>-0.003103619746566299</v>
+        <v>0.01697604315405362</v>
       </c>
       <c r="AL4">
-        <v>0.008999999999999999</v>
+        <v>0.316</v>
       </c>
       <c r="AM4">
-        <v>0.008999999999999999</v>
+        <v>0.213</v>
       </c>
       <c r="AN4">
-        <v>-0</v>
+        <v>1.523985239852399</v>
       </c>
       <c r="AO4">
-        <v>-394.4444444444445</v>
+        <v>16.77215189873418</v>
       </c>
       <c r="AP4">
-        <v>0.05339233038348083</v>
+        <v>0.9870848708487084</v>
       </c>
       <c r="AQ4">
-        <v>-394.4444444444445</v>
+        <v>24.88262910798122</v>
       </c>
     </row>
     <row r="5">
@@ -960,22 +939,22 @@
         </is>
       </c>
       <c r="G5">
-        <v>1.123052959501558</v>
+        <v>0.4201680672268908</v>
       </c>
       <c r="H5">
-        <v>1.123052959501558</v>
+        <v>0.4201680672268908</v>
       </c>
       <c r="I5">
-        <v>1.160436137071651</v>
+        <v>0.680672268907563</v>
       </c>
       <c r="J5">
-        <v>1.160436137071651</v>
+        <v>0.6402306529306284</v>
       </c>
       <c r="K5">
-        <v>-7.13</v>
+        <v>2.25</v>
       </c>
       <c r="L5">
-        <v>1.110591900311527</v>
+        <v>0.6302521008403361</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -984,7 +963,7 @@
         <v>-0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P5">
         <v>-0</v>
@@ -993,79 +972,73 @@
         <v>-0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
       <c r="V5">
-        <v>0.0463768115942029</v>
+        <v>0.05958333333333333</v>
       </c>
       <c r="W5">
-        <v>-0.1501052631578947</v>
+        <v>0.05653266331658292</v>
       </c>
       <c r="X5">
-        <v>0.05431137455941915</v>
+        <v>0.04164450690495061</v>
       </c>
       <c r="Y5">
-        <v>-0.2044166377173139</v>
+        <v>0.0148881564116323</v>
       </c>
       <c r="Z5">
-        <v>-0.1402052849967242</v>
+        <v>0.09255658396204403</v>
       </c>
       <c r="AA5">
-        <v>-0.1626992793186285</v>
+        <v>0.05925756218304797</v>
       </c>
       <c r="AB5">
-        <v>0.05427853091903647</v>
+        <v>0.04163580536634686</v>
       </c>
       <c r="AC5">
-        <v>-0.216977810237665</v>
+        <v>0.01762175681670111</v>
       </c>
       <c r="AD5">
-        <v>0.051</v>
+        <v>0.011</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.051</v>
+        <v>0.011</v>
       </c>
       <c r="AG5">
-        <v>-1.229</v>
+        <v>-1.419</v>
       </c>
       <c r="AH5">
-        <v>0.001844417923402408</v>
+        <v>0.0004581233601266086</v>
       </c>
       <c r="AI5">
-        <v>0.001279767132568819</v>
+        <v>0.0002593666737403032</v>
       </c>
       <c r="AJ5">
-        <v>-0.04660422433734026</v>
+        <v>-0.06284044107878305</v>
       </c>
       <c r="AK5">
-        <v>-0.03186331699981852</v>
+        <v>-0.03462580220101998</v>
       </c>
       <c r="AL5">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>-0.006864064602960969</v>
-      </c>
-      <c r="AO5">
-        <v>-2483.333333333333</v>
+        <v>0.004489795918367346</v>
       </c>
       <c r="AP5">
-        <v>0.1654104979811575</v>
-      </c>
-      <c r="AQ5">
-        <v>-2483.333333333333</v>
+        <v>-0.5791836734693877</v>
       </c>
     </row>
     <row r="6">
@@ -1076,103 +1049,219 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>ECM Libra Group Berhad (KLSE:ECM)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Investments &amp; Asset Management</t>
+        </is>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>-3.97</v>
+      </c>
+      <c r="L6">
+        <v>-1.509505703422053</v>
+      </c>
+      <c r="M6">
+        <v>-0</v>
+      </c>
+      <c r="N6">
+        <v>-0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>-0</v>
+      </c>
+      <c r="Q6">
+        <v>-0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>4.15</v>
+      </c>
+      <c r="V6">
+        <v>0.1509090909090909</v>
+      </c>
+      <c r="W6">
+        <v>-0.08085539714867618</v>
+      </c>
+      <c r="X6">
+        <v>0.05042600536234269</v>
+      </c>
+      <c r="Y6">
+        <v>-0.1312814025110189</v>
+      </c>
+      <c r="Z6">
+        <v>0.04958521870286575</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0.04526551957515796</v>
+      </c>
+      <c r="AC6">
+        <v>-0.04526551957515796</v>
+      </c>
+      <c r="AD6">
+        <v>9.84</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>9.84</v>
+      </c>
+      <c r="AG6">
+        <v>5.69</v>
+      </c>
+      <c r="AH6">
+        <v>0.2635243706480985</v>
+      </c>
+      <c r="AI6">
+        <v>0.1774891774891775</v>
+      </c>
+      <c r="AJ6">
+        <v>0.1714371798734559</v>
+      </c>
+      <c r="AK6">
+        <v>0.1109378046402807</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>Pimpinan Ehsan Berhad (KLSE:PEB)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="K6">
-        <v>-0.263</v>
-      </c>
-      <c r="M6">
-        <v>-0</v>
-      </c>
-      <c r="N6">
-        <v>-0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>-0</v>
-      </c>
-      <c r="Q6">
-        <v>-0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>16.2</v>
-      </c>
-      <c r="V6">
-        <v>1.191176470588235</v>
-      </c>
-      <c r="W6">
-        <v>-0.01494318181818182</v>
-      </c>
-      <c r="X6">
-        <v>0.05474283658501401</v>
-      </c>
-      <c r="Y6">
-        <v>-0.06968601840319583</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>-11.60501001014184</v>
-      </c>
-      <c r="AB6">
-        <v>0.05441965377093179</v>
-      </c>
-      <c r="AC6">
-        <v>-11.65942966391277</v>
-      </c>
-      <c r="AD6">
-        <v>0.173</v>
-      </c>
-      <c r="AE6">
-        <v>0.07233663094257466</v>
-      </c>
-      <c r="AF6">
-        <v>0.2453366309425746</v>
-      </c>
-      <c r="AG6">
-        <v>-15.95466336905742</v>
-      </c>
-      <c r="AH6">
-        <v>0.01771980252139759</v>
-      </c>
-      <c r="AI6">
-        <v>0.01414424154241638</v>
-      </c>
-      <c r="AJ6">
-        <v>6.775772528131738</v>
-      </c>
-      <c r="AK6">
-        <v>-13.93010835244764</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>-0.6870000000000001</v>
-      </c>
-      <c r="AN6">
-        <v>-0.2138442521631644</v>
-      </c>
-      <c r="AP6">
-        <v>19.72146275532438</v>
-      </c>
-      <c r="AQ6">
-        <v>1.285298398835517</v>
+      <c r="K7">
+        <v>-0.22</v>
+      </c>
+      <c r="M7">
+        <v>-0</v>
+      </c>
+      <c r="N7">
+        <v>-0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>-0</v>
+      </c>
+      <c r="Q7">
+        <v>-0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>16.8</v>
+      </c>
+      <c r="V7">
+        <v>1.4</v>
+      </c>
+      <c r="W7">
+        <v>-0.01286549707602339</v>
+      </c>
+      <c r="X7">
+        <v>0.04193426666134865</v>
+      </c>
+      <c r="Y7">
+        <v>-0.05479976373737205</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>-0.6551724137931032</v>
+      </c>
+      <c r="AB7">
+        <v>0.04170090084630979</v>
+      </c>
+      <c r="AC7">
+        <v>-0.696873314639413</v>
+      </c>
+      <c r="AD7">
+        <v>0.147</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0.147</v>
+      </c>
+      <c r="AG7">
+        <v>-16.653</v>
+      </c>
+      <c r="AH7">
+        <v>0.0121017535193875</v>
+      </c>
+      <c r="AI7">
+        <v>0.008572928209016156</v>
+      </c>
+      <c r="AJ7">
+        <v>3.578981302385556</v>
+      </c>
+      <c r="AK7">
+        <v>-47.99135446685911</v>
+      </c>
+      <c r="AL7">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="AM7">
+        <v>-0.482</v>
+      </c>
+      <c r="AN7">
+        <v>-0.2112068965517241</v>
+      </c>
+      <c r="AO7">
+        <v>-78.11111111111111</v>
+      </c>
+      <c r="AP7">
+        <v>23.92672413793104</v>
+      </c>
+      <c r="AQ7">
+        <v>1.45850622406639</v>
       </c>
     </row>
   </sheetData>
